--- a/output/1Y_P15_1VAL-D.xlsx
+++ b/output/1Y_P15_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G2" s="1">
-        <v>916.8928</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1039</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.9064</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1039</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E3" s="1">
+        <v>916.8928</v>
+      </c>
       <c r="F3" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G3" s="1">
-        <v>1776.9821</v>
-      </c>
       <c r="H3" s="1">
-        <v>20553.1082</v>
+        <v>10605.0576</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.255</v>
+        <v>10605.0576</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.9064</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20553.1082</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0303</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E4" s="1">
+        <v>1776.9821</v>
+      </c>
       <c r="F4" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G4" s="1">
-        <v>2589.3628</v>
-      </c>
       <c r="H4" s="1">
-        <v>31708.301</v>
+        <v>21760.2121</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.5859</v>
+        <v>21760.2121</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.255</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31708.301</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0378</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E5" s="1">
+        <v>2589.3628</v>
+      </c>
       <c r="F5" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>3336.3227</v>
-      </c>
       <c r="H5" s="1">
-        <v>44433.8125</v>
+        <v>34485.6515</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.9892</v>
+        <v>34485.6515</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>11.5859</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44433.8125</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0653</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E6" s="1">
+        <v>3336.3227</v>
+      </c>
       <c r="F6" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G6" s="1">
-        <v>4087.4061</v>
-      </c>
       <c r="H6" s="1">
-        <v>54137.6938</v>
+        <v>44189.5937</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>12.2327</v>
+        <v>44189.5937</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11.9892</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.6</v>
       </c>
-      <c r="L6" s="1">
-        <v>1801.6142</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8198.3858</v>
+        <v>1398.2559</v>
       </c>
       <c r="O6" s="1">
-        <v>1801.6142</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>55939.3081</v>
+        <v>-8601.7441</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0277</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E7" s="1">
+        <v>4087.4061</v>
+      </c>
       <c r="F7" s="1">
-        <v>747.5784</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4834.9845</v>
+        <v>743.3787</v>
       </c>
       <c r="H7" s="1">
-        <v>65995.6042</v>
+        <v>55791.4584</v>
       </c>
       <c r="I7" s="1">
-        <v>60257.3735</v>
+        <v>1398.2559</v>
       </c>
       <c r="J7" s="1">
-        <v>12.4628</v>
+        <v>57189.7143</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50199.7508</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.2816</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1544.2408</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>67539.845</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0243</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E8" s="1">
+        <v>4830.7848</v>
+      </c>
       <c r="F8" s="1">
-        <v>722.2434</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5557.2279</v>
+        <v>718.1861</v>
       </c>
       <c r="H8" s="1">
-        <v>78514.7389</v>
+        <v>68251.2604</v>
       </c>
       <c r="I8" s="1">
-        <v>70514.7469</v>
+        <v>1198.5051</v>
       </c>
       <c r="J8" s="1">
-        <v>12.6888</v>
+        <v>69449.76549999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60399.5017</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.503</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1286.8673</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>79801.60619999999</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0292</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E9" s="1">
+        <v>5548.9709</v>
+      </c>
       <c r="F9" s="1">
-        <v>733.319</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6290.547</v>
+        <v>729.1994999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>87533.59</v>
+        <v>77214.48540000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80772.1204</v>
+        <v>998.7542</v>
       </c>
       <c r="J9" s="1">
-        <v>12.8402</v>
+        <v>78213.23970000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70599.2525</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.7229</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1029.4939</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>88563.0839</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0138</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E10" s="1">
+        <v>6278.1704</v>
+      </c>
       <c r="F10" s="1">
-        <v>796.2686</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7086.8156</v>
+        <v>791.7954999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>90817.542</v>
+        <v>80454.754</v>
       </c>
       <c r="I10" s="1">
-        <v>91029.4939</v>
+        <v>799.0034000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>12.8449</v>
+        <v>81253.7574</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80799.0034</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.8698</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>772.1204</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91589.6624</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0708</v>
+        <v>-0.0789</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E11" s="1">
+        <v>7069.9659</v>
+      </c>
       <c r="F11" s="1">
-        <v>798.1833</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7884.9989</v>
+        <v>793.6993</v>
       </c>
       <c r="H11" s="1">
-        <v>100803.4028</v>
+        <v>90383.85799999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101286.8673</v>
+        <v>599.2525000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>12.8455</v>
+        <v>90983.1105</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90998.7542</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.8712</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>514.7469</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101318.1497</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0027</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E12" s="1">
+        <v>7863.6652</v>
+      </c>
       <c r="F12" s="1">
-        <v>739.9955</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8624.9944</v>
+        <v>735.8384</v>
       </c>
       <c r="H12" s="1">
-        <v>118934.3599</v>
+        <v>108436.0117</v>
       </c>
       <c r="I12" s="1">
-        <v>111544.2408</v>
+        <v>399.5017</v>
       </c>
       <c r="J12" s="1">
-        <v>12.9327</v>
+        <v>108835.5134</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101198.5051</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.8691</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>257.3735</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119191.7334</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0707</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E13" s="1">
+        <v>8599.503699999999</v>
+      </c>
       <c r="F13" s="1">
-        <v>716.152</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9341.1464</v>
+        <v>712.1289</v>
       </c>
       <c r="H13" s="1">
-        <v>133098.2582</v>
+        <v>122530.8879</v>
       </c>
       <c r="I13" s="1">
-        <v>121801.6142</v>
+        <v>199.7508</v>
       </c>
       <c r="J13" s="1">
-        <v>13.0393</v>
+        <v>122730.6388</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111398.2559</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.954</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10257.3735</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>133098.2582</v>
+        <v>-10199.7508</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0302</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E14" s="1">
+        <v>9311.632600000001</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9341.1464</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8599.503699999999</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131854.5793</v>
       </c>
       <c r="I14" s="1">
-        <v>121801.6142</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.0393</v>
+        <v>131854.5793</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111398.2559</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.9633</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>132272.5009</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>132272.5009</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132272.5009</v>
+        <v>121770.6918</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0757</v>
+        <v>-0.0066</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>10.9064</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>916.8928</v>
       </c>
       <c r="G2" s="1">
-        <v>916.8928</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1039</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.9064</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1039</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>11.6267</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>916.8928</v>
       </c>
       <c r="F3" s="1">
         <v>812.2686</v>
       </c>
       <c r="G3" s="1">
-        <v>1729.1614</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10605.0576</v>
       </c>
       <c r="I3" s="1">
-        <v>19444.0034</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2448</v>
+        <v>10605.0576</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9444.0034</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9444.0034</v>
       </c>
-      <c r="O3" s="1">
-        <v>555.9965999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20555.9966</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0305</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>12.3095</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1729.1614</v>
       </c>
       <c r="F4" s="1">
         <v>720.6981</v>
       </c>
       <c r="G4" s="1">
-        <v>2449.8595</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21174.6194</v>
       </c>
       <c r="I4" s="1">
-        <v>28315.4367</v>
+        <v>555.9965999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>11.558</v>
+        <v>21730.6159</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18315.4367</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.5921</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8871.433199999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1684.5633</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31684.5633</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0369</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.3876</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2449.8595</v>
       </c>
       <c r="F5" s="1">
         <v>553.5493</v>
       </c>
       <c r="G5" s="1">
-        <v>3003.4089</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>32627.7193</v>
       </c>
       <c r="I5" s="1">
-        <v>35726.1337</v>
+        <v>1684.5633</v>
       </c>
       <c r="J5" s="1">
-        <v>11.8952</v>
+        <v>34312.2827</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>25726.1337</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.5011</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7410.697</v>
       </c>
-      <c r="O5" s="1">
-        <v>4273.8663</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44273.8663</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0621</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.3141</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3003.4089</v>
       </c>
       <c r="F6" s="1">
         <v>771.6006</v>
       </c>
       <c r="G6" s="1">
-        <v>3775.0094</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39780.1505</v>
       </c>
       <c r="I6" s="1">
-        <v>45999.3008</v>
+        <v>4273.8663</v>
       </c>
       <c r="J6" s="1">
-        <v>12.1852</v>
+        <v>44054.0168</v>
       </c>
       <c r="K6" s="1">
+        <v>35999.3008</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11.9861</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.6</v>
       </c>
-      <c r="L6" s="1">
-        <v>1621.8408</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8651.326300000001</v>
+        <v>1322.9242</v>
       </c>
       <c r="O6" s="1">
-        <v>5622.54</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>55622.54</v>
+        <v>-8950.243</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0248</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.7208</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3775.0094</v>
       </c>
       <c r="F7" s="1">
         <v>620.7238</v>
       </c>
       <c r="G7" s="1">
-        <v>4395.7332</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51527.3688</v>
       </c>
       <c r="I7" s="1">
-        <v>54516.1275</v>
+        <v>5323.6234</v>
       </c>
       <c r="J7" s="1">
-        <v>12.4021</v>
+        <v>56850.9922</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44516.1275</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>11.7923</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8516.8267</v>
       </c>
-      <c r="O7" s="1">
-        <v>7105.7133</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67105.7133</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0226</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.2021</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4395.7332</v>
       </c>
       <c r="F8" s="1">
         <v>558.8264</v>
       </c>
       <c r="G8" s="1">
-        <v>4954.5596</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62104.6771</v>
       </c>
       <c r="I8" s="1">
-        <v>62452.636</v>
+        <v>6806.7966</v>
       </c>
       <c r="J8" s="1">
-        <v>12.6051</v>
+        <v>68911.4737</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52452.636</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>11.9326</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7936.5084</v>
       </c>
-      <c r="O8" s="1">
-        <v>9169.2048</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79169.20480000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0268</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.9876</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4954.5596</v>
       </c>
       <c r="F9" s="1">
         <v>794.5906</v>
       </c>
       <c r="G9" s="1">
-        <v>5749.1502</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>68943.1924</v>
       </c>
       <c r="I9" s="1">
-        <v>73567.05130000001</v>
+        <v>8870.288200000001</v>
       </c>
       <c r="J9" s="1">
-        <v>12.7962</v>
+        <v>77813.4806</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63567.0513</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.83</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11114.4154</v>
       </c>
-      <c r="O9" s="1">
-        <v>8054.7895</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88054.7895</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0125</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>12.8818</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5749.1502</v>
       </c>
       <c r="F10" s="1">
         <v>1273.8697</v>
       </c>
       <c r="G10" s="1">
-        <v>7023.0199</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>73675.3599</v>
       </c>
       <c r="I10" s="1">
-        <v>89976.78599999999</v>
+        <v>7755.8728</v>
       </c>
       <c r="J10" s="1">
-        <v>12.8117</v>
+        <v>81431.23269999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79976.78599999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9111</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-16409.7346</v>
       </c>
-      <c r="O10" s="1">
-        <v>1645.0548</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91645.0548</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0654</v>
+        <v>-0.0727</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>12.8509</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>7023.0199</v>
       </c>
       <c r="F11" s="1">
         <v>799.1356</v>
       </c>
       <c r="G11" s="1">
-        <v>7822.1555</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>89783.69100000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100246.3973</v>
+        <v>1346.1382</v>
       </c>
       <c r="J11" s="1">
-        <v>12.8157</v>
+        <v>91129.82919999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90246.3973</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.8501</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10269.6114</v>
       </c>
-      <c r="O11" s="1">
-        <v>1375.4435</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101375.4435</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0027</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.8614</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7822.1555</v>
       </c>
       <c r="F12" s="1">
         <v>154.9285</v>
       </c>
       <c r="G12" s="1">
-        <v>7977.084</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>107863.6129</v>
       </c>
       <c r="I12" s="1">
-        <v>102393.9238</v>
+        <v>1076.5268</v>
       </c>
       <c r="J12" s="1">
-        <v>12.836</v>
+        <v>108940.1397</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92393.9238</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>11.8118</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-2147.5265</v>
       </c>
-      <c r="O12" s="1">
-        <v>9227.916999999999</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119227.917</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.07049999999999999</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.3229</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7977.084</v>
       </c>
       <c r="F13" s="1">
         <v>444.796</v>
       </c>
       <c r="G13" s="1">
-        <v>8421.879999999999</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113662.2793</v>
       </c>
       <c r="I13" s="1">
-        <v>108764.6929</v>
+        <v>8929.000400000001</v>
       </c>
       <c r="J13" s="1">
-        <v>12.9145</v>
+        <v>122591.2796</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98764.69289999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.3811</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6370.7691</v>
       </c>
-      <c r="O13" s="1">
-        <v>12857.1479</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132857.1479</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0281</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.2341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8421.879999999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8421.879999999999</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119255.5058</v>
       </c>
       <c r="I14" s="1">
-        <v>108764.6929</v>
+        <v>12558.2313</v>
       </c>
       <c r="J14" s="1">
-        <v>12.9145</v>
+        <v>131813.7371</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98764.69289999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.7272</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119255.5058</v>
       </c>
-      <c r="O14" s="1">
-        <v>132112.6537</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132112.6537</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0752</v>
+        <v>-0.0059</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>10.9064</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>916.8928</v>
       </c>
       <c r="G2" s="1">
-        <v>916.8928</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1039</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.9064</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1039</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>11.6267</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>916.8928</v>
       </c>
       <c r="F3" s="1">
         <v>816.5915</v>
       </c>
       <c r="G3" s="1">
-        <v>1733.4843</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10605.0576</v>
       </c>
       <c r="I3" s="1">
-        <v>19494.2645</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2457</v>
+        <v>10605.0576</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9494.264499999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.3548</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9494.264499999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>505.7355</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20555.7355</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0305</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>12.3095</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1733.4843</v>
       </c>
       <c r="F4" s="1">
         <v>728.6449</v>
       </c>
       <c r="G4" s="1">
-        <v>2462.1293</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21227.5559</v>
       </c>
       <c r="I4" s="1">
-        <v>28463.519</v>
+        <v>505.7355</v>
       </c>
       <c r="J4" s="1">
-        <v>11.5605</v>
+        <v>21733.2914</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18463.519</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6511</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8969.254499999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1536.481</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31686.731</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.037</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.3876</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2462.1293</v>
       </c>
       <c r="F5" s="1">
         <v>563.8804</v>
       </c>
       <c r="G5" s="1">
-        <v>3026.0096</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>32791.1298</v>
       </c>
       <c r="I5" s="1">
-        <v>36012.5237</v>
+        <v>1536.481</v>
       </c>
       <c r="J5" s="1">
-        <v>11.901</v>
+        <v>34327.6108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26012.5237</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.5651</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7549.0047</v>
       </c>
-      <c r="O5" s="1">
-        <v>3987.4763</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44288.4775</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0624</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.3141</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3026.0096</v>
       </c>
       <c r="F6" s="1">
         <v>786.9391000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3812.9488</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40079.4973</v>
       </c>
       <c r="I6" s="1">
-        <v>46489.9102</v>
+        <v>3987.4763</v>
       </c>
       <c r="J6" s="1">
-        <v>12.1926</v>
+        <v>44066.9736</v>
       </c>
       <c r="K6" s="1">
+        <v>36489.9102</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.0588</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.6</v>
       </c>
-      <c r="L6" s="1">
-        <v>1634.0452</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8843.341200000001</v>
+        <v>1329.5498</v>
       </c>
       <c r="O6" s="1">
-        <v>5144.135</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>55646.6413</v>
+        <v>-9147.836600000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.025</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.7208</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3812.9488</v>
       </c>
       <c r="F7" s="1">
         <v>638.0988</v>
       </c>
       <c r="G7" s="1">
-        <v>4451.0476</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52045.2253</v>
       </c>
       <c r="I7" s="1">
-        <v>55245.1363</v>
+        <v>4839.6396</v>
       </c>
       <c r="J7" s="1">
-        <v>12.4117</v>
+        <v>56884.865</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45245.1363</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>11.8662</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8755.2261</v>
       </c>
-      <c r="O7" s="1">
-        <v>6388.9089</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67143.9277</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0228</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.2021</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4451.0476</v>
       </c>
       <c r="F8" s="1">
         <v>578.4529</v>
       </c>
       <c r="G8" s="1">
-        <v>5029.5004</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62886.1804</v>
       </c>
       <c r="I8" s="1">
-        <v>63460.3818</v>
+        <v>6084.4135</v>
       </c>
       <c r="J8" s="1">
-        <v>12.6176</v>
+        <v>68970.59390000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53460.3818</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.0107</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8215.245500000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>8173.6634</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79232.45729999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0271</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.9876</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5029.5004</v>
       </c>
       <c r="F9" s="1">
         <v>821.2723</v>
       </c>
       <c r="G9" s="1">
-        <v>5850.7727</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>69986.00139999999</v>
       </c>
       <c r="I9" s="1">
-        <v>74948.0104</v>
+        <v>7869.168</v>
       </c>
       <c r="J9" s="1">
-        <v>12.8099</v>
+        <v>77855.1695</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64948.0104</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.9134</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11487.6287</v>
       </c>
-      <c r="O9" s="1">
-        <v>6686.0348</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88100.1226</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0127</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>12.8818</v>
       </c>
       <c r="E10" s="1">
+        <v>5850.7727</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1271.6809</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>1295.3186</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7146.0913</v>
-      </c>
       <c r="H10" s="1">
-        <v>91577.1603</v>
+        <v>74977.6528</v>
       </c>
       <c r="I10" s="1">
-        <v>91634.04519999999</v>
+        <v>6381.5394</v>
       </c>
       <c r="J10" s="1">
-        <v>12.823</v>
+        <v>81359.1921</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81329.54979999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9007</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-16686.0348</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91577.1603</v>
+        <v>-16381.5394</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0665</v>
+        <v>-0.07389999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>12.8509</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>7122.4537</v>
       </c>
       <c r="F11" s="1">
         <v>778.1556</v>
       </c>
       <c r="G11" s="1">
-        <v>7924.2469</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>101305.1577</v>
+        <v>91054.8723</v>
       </c>
       <c r="I11" s="1">
-        <v>101634.0452</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>12.8257</v>
+        <v>91054.8723</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91329.54979999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.8228</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101305.1577</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0027</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.8614</v>
       </c>
       <c r="E12" s="1">
+        <v>7900.6093</v>
+      </c>
+      <c r="F12" s="1">
+        <v>278.9234</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>255.2857</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8179.5326</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>108945.4518</v>
       </c>
       <c r="I12" s="1">
-        <v>105172.6625</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>12.858</v>
+        <v>108945.4518</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95195.818</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.0492</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-3538.6173</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>6461.3827</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119253.0481</v>
+        <v>-3866.2682</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.07140000000000001</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.3229</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8179.5326</v>
       </c>
       <c r="F13" s="1">
         <v>477.8529</v>
       </c>
       <c r="G13" s="1">
-        <v>8657.3855</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116546.8888</v>
       </c>
       <c r="I13" s="1">
-        <v>112016.9019</v>
+        <v>6133.7318</v>
       </c>
       <c r="J13" s="1">
-        <v>12.9389</v>
+        <v>122680.6207</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102040.0573</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.475</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6844.2394</v>
       </c>
-      <c r="O13" s="1">
-        <v>9617.1433</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132972.767</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0288</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.2341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8657.3855</v>
       </c>
       <c r="F14" s="1">
         <v>-8657.3855</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122590.3108</v>
       </c>
       <c r="I14" s="1">
-        <v>112016.9019</v>
+        <v>9289.4925</v>
       </c>
       <c r="J14" s="1">
-        <v>12.9389</v>
+        <v>131879.8033</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102040.0573</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.7865</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122590.3108</v>
       </c>
-      <c r="O14" s="1">
-        <v>132207.4542</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132207.4542</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.07530000000000001</v>
+        <v>-0.006</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>10.9064</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>916.8928</v>
       </c>
       <c r="G2" s="1">
-        <v>916.8928</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1039</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.9064</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1039</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>11.6267</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>916.8928</v>
       </c>
       <c r="F3" s="1">
         <v>820.9144</v>
       </c>
       <c r="G3" s="1">
-        <v>1737.8073</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10605.0576</v>
       </c>
       <c r="I3" s="1">
-        <v>19544.5256</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2467</v>
+        <v>10605.0576</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9544.525600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4096</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9544.525600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>455.4744</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20555.4744</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0304</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>12.3095</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1737.8073</v>
       </c>
       <c r="F4" s="1">
         <v>736.6325000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2474.4398</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21280.4925</v>
       </c>
       <c r="I4" s="1">
-        <v>28612.104</v>
+        <v>455.4744</v>
       </c>
       <c r="J4" s="1">
-        <v>11.5631</v>
+        <v>21735.9668</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18612.104</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.7101</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9067.5784</v>
       </c>
-      <c r="O4" s="1">
-        <v>1387.896</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31688.896</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0371</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.3876</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2474.4398</v>
       </c>
       <c r="F5" s="1">
         <v>574.3213</v>
       </c>
       <c r="G5" s="1">
-        <v>3048.7611</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32955.0841</v>
       </c>
       <c r="I5" s="1">
-        <v>36300.8878</v>
+        <v>1387.896</v>
       </c>
       <c r="J5" s="1">
-        <v>11.9068</v>
+        <v>34342.9801</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26300.8878</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.629</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7688.7838</v>
       </c>
-      <c r="O5" s="1">
-        <v>3699.1122</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44303.1222</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.06270000000000001</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.3141</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3048.7611</v>
       </c>
       <c r="F6" s="1">
         <v>802.5073</v>
       </c>
       <c r="G6" s="1">
-        <v>3851.2684</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40380.8407</v>
       </c>
       <c r="I6" s="1">
-        <v>46985.5504</v>
+        <v>3699.1122</v>
       </c>
       <c r="J6" s="1">
-        <v>12.2</v>
+        <v>44079.9529</v>
       </c>
       <c r="K6" s="1">
+        <v>36985.5504</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.1313</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.6</v>
       </c>
-      <c r="L6" s="1">
-        <v>1646.331</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9038.331700000001</v>
+        <v>1336.1975</v>
       </c>
       <c r="O6" s="1">
-        <v>4660.7805</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>55670.8306</v>
+        <v>-9348.465200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0252</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.7208</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3851.2684</v>
       </c>
       <c r="F7" s="1">
         <v>655.8344</v>
       </c>
       <c r="G7" s="1">
-        <v>4507.1028</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52568.2733</v>
       </c>
       <c r="I7" s="1">
-        <v>55984.1232</v>
+        <v>4350.647</v>
       </c>
       <c r="J7" s="1">
-        <v>12.4213</v>
+        <v>56918.9203</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45984.1232</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>11.94</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8998.572700000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>5662.2078</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67182.3584</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.023</v>
+        <v>0.0525</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.2021</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4507.1028</v>
       </c>
       <c r="F8" s="1">
         <v>598.5958000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5105.6986</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63678.1514</v>
       </c>
       <c r="I8" s="1">
-        <v>64485.4403</v>
+        <v>5352.0743</v>
       </c>
       <c r="J8" s="1">
-        <v>12.6301</v>
+        <v>69030.2258</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54485.4403</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.0888</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8501.3172</v>
       </c>
-      <c r="O8" s="1">
-        <v>7160.8907</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79296.24280000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0274</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.9876</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5105.6986</v>
       </c>
       <c r="F9" s="1">
         <v>848.747</v>
       </c>
       <c r="G9" s="1">
-        <v>5954.4456</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>71046.3066</v>
       </c>
       <c r="I9" s="1">
-        <v>76357.3735</v>
+        <v>6850.7572</v>
       </c>
       <c r="J9" s="1">
-        <v>12.8236</v>
+        <v>77897.0637</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66357.3735</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.9967</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11871.9332</v>
       </c>
-      <c r="O9" s="1">
-        <v>5288.9575</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88145.66310000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0129</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>12.8818</v>
       </c>
       <c r="E10" s="1">
+        <v>5954.4456</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1162.7897</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>1186.865</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7141.3106</v>
-      </c>
       <c r="H10" s="1">
-        <v>91515.8949</v>
+        <v>76306.22010000001</v>
       </c>
       <c r="I10" s="1">
-        <v>91646.33100000001</v>
+        <v>4978.824</v>
       </c>
       <c r="J10" s="1">
-        <v>12.8333</v>
+        <v>81285.04399999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81336.19749999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.6597</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-15288.9575</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91515.8949</v>
+        <v>-14978.824</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06759999999999999</v>
+        <v>-0.0752</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>12.8509</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>7117.2352</v>
       </c>
       <c r="F11" s="1">
         <v>778.1556</v>
       </c>
       <c r="G11" s="1">
-        <v>7919.4662</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101244.0396</v>
+        <v>90988.1588</v>
       </c>
       <c r="I11" s="1">
-        <v>101646.331</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>12.835</v>
+        <v>90988.1588</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91336.19749999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.8331</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101244.0396</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0027</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.8614</v>
       </c>
       <c r="E12" s="1">
+        <v>7895.3909</v>
+      </c>
+      <c r="F12" s="1">
+        <v>492.7557</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>468.6804</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8388.146500000001</v>
-      </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108873.4923</v>
       </c>
       <c r="I12" s="1">
-        <v>108142.8968</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>12.8923</v>
+        <v>108873.4923</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98166.481</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.4334</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-6496.5658</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>3503.4342</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119171.7808</v>
+        <v>-6830.2835</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0713</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.3229</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8388.146500000001</v>
       </c>
       <c r="F13" s="1">
         <v>512.7301</v>
       </c>
       <c r="G13" s="1">
-        <v>8900.8766</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119519.3447</v>
       </c>
       <c r="I13" s="1">
-        <v>115486.6781</v>
+        <v>3169.7165</v>
       </c>
       <c r="J13" s="1">
-        <v>12.9748</v>
+        <v>122689.0612</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105510.2623</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.5785</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7343.7812</v>
       </c>
-      <c r="O13" s="1">
-        <v>6159.6529</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132984.6831</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0295</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>14.2341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8900.8766</v>
       </c>
       <c r="F14" s="1">
         <v>-8900.8766</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126038.1926</v>
       </c>
       <c r="I14" s="1">
-        <v>115486.6781</v>
+        <v>5825.9352</v>
       </c>
       <c r="J14" s="1">
-        <v>12.9748</v>
+        <v>131864.1279</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105510.2623</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.8539</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126038.1926</v>
       </c>
-      <c r="O14" s="1">
-        <v>132197.8456</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132197.8456</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>-0.0062</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>10.9064</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>916.8928</v>
       </c>
       <c r="G2" s="1">
-        <v>916.8928</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1039</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.9064</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1039</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>11.6267</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>916.8928</v>
       </c>
       <c r="F3" s="1">
         <v>825.2373</v>
       </c>
       <c r="G3" s="1">
-        <v>1742.1302</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10605.0576</v>
       </c>
       <c r="I3" s="1">
-        <v>19594.7868</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2476</v>
+        <v>10605.0576</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9594.7868</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4645</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9594.7868</v>
       </c>
-      <c r="O3" s="1">
-        <v>405.2132</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20555.2132</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0304</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>12.3095</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1742.1302</v>
       </c>
       <c r="F4" s="1">
         <v>744.6609999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>2486.7912</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21333.429</v>
       </c>
       <c r="I4" s="1">
-        <v>28761.1916</v>
+        <v>405.2132</v>
       </c>
       <c r="J4" s="1">
-        <v>11.5656</v>
+        <v>21738.6423</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18761.1916</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.7691</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9166.4048</v>
       </c>
-      <c r="O4" s="1">
-        <v>1238.8084</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31691.0584</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0372</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.3876</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2486.7912</v>
       </c>
       <c r="F5" s="1">
         <v>584.8727</v>
       </c>
       <c r="G5" s="1">
-        <v>3071.6639</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>33119.5822</v>
       </c>
       <c r="I5" s="1">
-        <v>36591.2333</v>
+        <v>1238.8084</v>
       </c>
       <c r="J5" s="1">
-        <v>11.9125</v>
+        <v>34358.3906</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26591.2333</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.693</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7830.0417</v>
       </c>
-      <c r="O5" s="1">
-        <v>3408.7667</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44317.8005</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.063</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.3141</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3071.6639</v>
       </c>
       <c r="F6" s="1">
         <v>818.3074</v>
       </c>
       <c r="G6" s="1">
-        <v>3889.9713</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>40684.188</v>
       </c>
       <c r="I6" s="1">
-        <v>47486.2596</v>
+        <v>3408.7667</v>
       </c>
       <c r="J6" s="1">
-        <v>12.2074</v>
+        <v>44092.9547</v>
       </c>
       <c r="K6" s="1">
+        <v>37486.2596</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.2039</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.6</v>
       </c>
-      <c r="L6" s="1">
-        <v>1658.6985</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9236.3279</v>
+        <v>1342.8672</v>
       </c>
       <c r="O6" s="1">
-        <v>4172.4389</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>55695.1081</v>
+        <v>-9552.159100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0254</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.7208</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3889.9713</v>
       </c>
       <c r="F7" s="1">
         <v>673.9361</v>
       </c>
       <c r="G7" s="1">
-        <v>4563.9073</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53096.5516</v>
       </c>
       <c r="I7" s="1">
-        <v>56733.2015</v>
+        <v>3856.6076</v>
       </c>
       <c r="J7" s="1">
-        <v>12.4308</v>
+        <v>56953.1592</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46733.2015</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.0138</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9246.9419</v>
       </c>
-      <c r="O7" s="1">
-        <v>4925.4969</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67221.0062</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0232</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.2021</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4563.9073</v>
       </c>
       <c r="F8" s="1">
         <v>619.2657</v>
       </c>
       <c r="G8" s="1">
-        <v>5183.173</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64480.7081</v>
       </c>
       <c r="I8" s="1">
-        <v>65528.0752</v>
+        <v>4609.6657</v>
       </c>
       <c r="J8" s="1">
-        <v>12.6425</v>
+        <v>69090.3738</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55528.0752</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.1668</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8794.8737</v>
       </c>
-      <c r="O8" s="1">
-        <v>6130.6232</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79360.5652</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0277</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.9876</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5183.173</v>
       </c>
       <c r="F9" s="1">
         <v>877.0343</v>
       </c>
       <c r="G9" s="1">
-        <v>6060.2073</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>72124.3711</v>
       </c>
       <c r="I9" s="1">
-        <v>77795.6802</v>
+        <v>5814.792</v>
       </c>
       <c r="J9" s="1">
-        <v>12.8371</v>
+        <v>77939.16310000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67795.6802</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.08</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12267.6049</v>
       </c>
-      <c r="O9" s="1">
-        <v>3863.0183</v>
-      </c>
-      <c r="P9" s="1">
-        <v>88191.4094</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0131</v>
+        <v>-0.0146</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>12.8818</v>
       </c>
       <c r="E10" s="1">
+        <v>6060.2073</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1051.6533</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>1076.1709</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7136.3782</v>
-      </c>
       <c r="H10" s="1">
-        <v>91452.6871</v>
+        <v>77661.557</v>
       </c>
       <c r="I10" s="1">
-        <v>91658.6985</v>
+        <v>3547.1871</v>
       </c>
       <c r="J10" s="1">
-        <v>12.8439</v>
+        <v>81208.74400000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81342.86719999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.4225</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-13863.0183</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91452.6871</v>
+        <v>-13547.1871</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06859999999999999</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>12.8509</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>7111.8606</v>
       </c>
       <c r="F11" s="1">
         <v>778.1556</v>
       </c>
       <c r="G11" s="1">
-        <v>7914.5339</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101180.9837</v>
+        <v>90919.4483</v>
       </c>
       <c r="I11" s="1">
-        <v>101658.6985</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>12.8446</v>
+        <v>90919.4483</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91342.86719999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.8437</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101180.9837</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0027</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.8614</v>
       </c>
       <c r="E12" s="1">
+        <v>7890.0162</v>
+      </c>
+      <c r="F12" s="1">
+        <v>713.0967000000001</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>688.579</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8603.1129</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>108799.3786</v>
       </c>
       <c r="I12" s="1">
-        <v>111203.3677</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>12.9259</v>
+        <v>108799.3786</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101227.3852</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.8298</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9544.6692</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>455.3308</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119087.9557</v>
+        <v>-9884.518</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0711</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.3229</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8603.1129</v>
       </c>
       <c r="F13" s="1">
         <v>549.5137</v>
       </c>
       <c r="G13" s="1">
-        <v>9152.6265</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>122582.3141</v>
       </c>
       <c r="I13" s="1">
-        <v>119073.9968</v>
+        <v>115.482</v>
       </c>
       <c r="J13" s="1">
-        <v>13.0098</v>
+        <v>122697.7961</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109098.0143</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.6812</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7870.6291</v>
       </c>
-      <c r="O13" s="1">
-        <v>2584.7017</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132996.816</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0303</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>14.2341</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9152.6265</v>
       </c>
       <c r="F14" s="1">
         <v>-9152.6265</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129603.0221</v>
       </c>
       <c r="I14" s="1">
-        <v>119073.9968</v>
+        <v>2244.8529</v>
       </c>
       <c r="J14" s="1">
-        <v>13.0098</v>
+        <v>131847.875</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109098.0143</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.9199</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>129603.0221</v>
       </c>
-      <c r="O14" s="1">
-        <v>132187.7238</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132187.7238</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0756</v>
+        <v>-0.0064</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.1957</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0393</v>
+        <v>11.9633</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9145</v>
+        <v>11.7272</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9389</v>
+        <v>11.7865</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9748</v>
+        <v>11.8539</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0098</v>
+        <v>11.9199</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2817</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1527</v>
+        <v>0.2912</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1466</v>
+        <v>0.2854</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1478</v>
+        <v>0.2865</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1481</v>
+        <v>0.2868</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1483</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1577</v>
       </c>
       <c r="C5" s="3">
-        <v>0.154</v>
+        <v>0.1581</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1485</v>
+        <v>0.1502</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1498</v>
+        <v>0.1517</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1507</v>
+        <v>0.153</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1516</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.6568</v>
       </c>
       <c r="C6" s="4">
-        <v>0.8593</v>
+        <v>1.7141</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8502</v>
+        <v>1.7646</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8511</v>
+        <v>1.7542</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8479</v>
+        <v>1.7422</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8445</v>
+        <v>1.7301</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.196</v>
+        <v>0.0276</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2084</v>
+        <v>0.2024</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2063</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2031</v>
+        <v>0.1969</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1801.6142</v>
+        <v>1398.2559</v>
       </c>
       <c r="D8" s="1">
-        <v>1621.8408</v>
+        <v>1322.9242</v>
       </c>
       <c r="E8" s="1">
-        <v>1634.0452</v>
+        <v>1329.5498</v>
       </c>
       <c r="F8" s="1">
-        <v>1646.331</v>
+        <v>1336.1975</v>
       </c>
       <c r="G8" s="1">
-        <v>1658.6985</v>
+        <v>1342.8672</v>
       </c>
     </row>
   </sheetData>
